--- a/models/matouqin/Data/dat_structure.xlsx
+++ b/models/matouqin/Data/dat_structure.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678B2FC7-3168-48F2-9BC7-28E794430CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DD72D4-CC7F-453A-8754-6883DB0FABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="6" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="2" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="inflow-cf" sheetId="1" r:id="rId1"/>
     <sheet name="generation" sheetId="7" r:id="rId2"/>
-    <sheet name="electrozer" sheetId="2" r:id="rId3"/>
-    <sheet name="tank" sheetId="4" r:id="rId4"/>
-    <sheet name="fuel-cell" sheetId="5" r:id="rId5"/>
-    <sheet name="time" sheetId="3" r:id="rId6"/>
-    <sheet name="price" sheetId="6" r:id="rId7"/>
+    <sheet name="time" sheetId="3" r:id="rId3"/>
+    <sheet name="price" sheetId="6" r:id="rId4"/>
+    <sheet name="electrozer" sheetId="2" r:id="rId5"/>
+    <sheet name="tank" sheetId="4" r:id="rId6"/>
+    <sheet name="fuel-cell" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -733,6 +733,63 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F00EEF-937B-44B8-81B6-78FAA64D53D6}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E30:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39AA25D-8DDD-4DE2-BB31-FBA4668F09F8}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -782,7 +839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577A8CDB-DCE2-4409-ABF8-20369696E92F}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -845,7 +902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058CE4B9-55E7-4FFE-84AE-C9893BCDDCA4}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -885,61 +942,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F00EEF-937B-44B8-81B6-78FAA64D53D6}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA09C07B-97B6-4944-81CD-58D528438C11}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/models/matouqin/Data/dat_structure.xlsx
+++ b/models/matouqin/Data/dat_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DDB8E6-2C1D-44AE-962A-F01293B1E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F07F9-269C-43A1-9EFB-A799B7643E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="6" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>

--- a/models/matouqin/Data/dat_structure.xlsx
+++ b/models/matouqin/Data/dat_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model\yayue\models\matouqin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F07F9-269C-43A1-9EFB-A799B7643E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E91B5FB-2668-47F6-B997-0D7675005918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="6" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{AEEBE647-0CC9-4089-B5C6-ED9E548DECB5}"/>
   </bookViews>
   <sheets>
     <sheet name="inflow-cf" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +711,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - 着色 3" xfId="1" builtinId="38"/>
@@ -731,10 +728,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1036,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242E8666-AD35-47D5-AF75-40A218378C62}">
   <dimension ref="A1:C8761"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -71410,31 +71403,31 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>1000</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2">
         <v>300</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2">
         <v>20</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -71442,31 +71435,31 @@
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3">
         <v>500</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>100</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -71480,7 +71473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058CE4B9-55E7-4FFE-84AE-C9893BCDDCA4}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
